--- a/data/trans_dic/P28A_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28A_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más alcohol respecto al último mes</t>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 18,16</t>
+          <t>5,15; 14,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 17,53</t>
+          <t>3,58; 11,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,03</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,13</t>
+          <t>0,57; 7,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,88</t>
+          <t>3,09; 9,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 13,52</t>
+          <t>1,02; 6,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,4</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 11,21</t>
+          <t>1,04; 6,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 16,11</t>
+          <t>4,88; 10,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,69</t>
+          <t>2,74; 7,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,68</t>
+          <t>0,26; 2,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,73</t>
+          <t>1,21; 5,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>0,94%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>11,35%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,33%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 20,44</t>
+          <t>3,13; 13,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 16,47</t>
+          <t>2,46; 11,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 9,33</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,73</t>
+          <t>0,58; 5,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 14,59</t>
+          <t>1,87; 8,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 14,39</t>
+          <t>2,43; 9,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,0; 3,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,67</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 15,68</t>
+          <t>3,24; 9,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,7</t>
+          <t>3,35; 9,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,31</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,61</t>
+          <t>0,4; 3,62</t>
         </is>
       </c>
     </row>
@@ -936,17 +937,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,17 +957,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,17 +977,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 28,39</t>
+          <t>2,13; 26,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,12</t>
+          <t>0,0; 17,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 29,53</t>
+          <t>2,34; 22,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 40,66</t>
+          <t>5,43; 30,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,11</t>
+          <t>0,0; 17,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 22,8</t>
+          <t>3,05; 16,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 21,76</t>
+          <t>3,17; 18,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,28</t>
+          <t>0,0; 7,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 17,18</t>
+          <t>5,63; 11,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,98</t>
+          <t>4,05; 9,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,48</t>
+          <t>0,25; 3,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,9</t>
+          <t>0,83; 4,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,31</t>
+          <t>3,48; 7,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 13,44</t>
+          <t>2,95; 7,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,14</t>
+          <t>0,36; 2,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 7,04</t>
+          <t>0,63; 3,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 15,05</t>
+          <t>5,19; 9,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,43</t>
+          <t>3,94; 7,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,84</t>
+          <t>0,38; 2,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,55</t>
+          <t>0,93; 3,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32902</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>29822</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9655</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25586</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12840</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11911</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>58488</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>42662</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8026</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21567</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18822; 51235</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15415; 49367</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12882</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2172; 27741</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13460; 41495</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5175; 31042</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13854</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4239; 26889</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39118; 83193</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25731; 66676</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2017; 19467</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9555; 42263</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21582</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22302</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6673</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14584</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21388</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36166</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43691</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6188</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9438</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9534; 40895</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8828; 39720</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19507</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1879; 18432</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6553; 30066</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10324; 41163</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11095</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16613</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21232; 59028</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26270; 72111</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23037</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2655; 23785</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3382</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6531</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14736</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14648</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18118</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1807; 22824</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17366</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1936; 18417</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5498; 31269</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14112</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5111; 28188</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6431; 37715</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12603</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>62602</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55505</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7846</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16328</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>46701</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9118</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14676</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>109302</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>104470</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16964</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>31004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>42519; 88874</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36100; 86070</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1939; 23022</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6553; 35620</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30235; 69209</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30591; 76385</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3059; 23651</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5201; 30799</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>84259; 146817</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>75937; 140862</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6165; 32097</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15064; 54993</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>